--- a/modelos/OBASPA4491043/OBASPA4491043_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4491043/OBASPA4491043_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44778</v>
       </c>
       <c r="B2" t="n">
-        <v>140.1294379908017</v>
+        <v>140.1294379900993</v>
       </c>
       <c r="C2" t="n">
-        <v>109.9875826488103</v>
+        <v>107.3099443367093</v>
       </c>
       <c r="D2" t="n">
-        <v>171.0498047558255</v>
+        <v>170.7391010253378</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -496,13 +496,13 @@
         <v>44782</v>
       </c>
       <c r="B3" t="n">
-        <v>135.0835006851623</v>
+        <v>135.0835006844578</v>
       </c>
       <c r="C3" t="n">
-        <v>105.0790005001498</v>
+        <v>103.9423607936922</v>
       </c>
       <c r="D3" t="n">
-        <v>165.5099306589803</v>
+        <v>168.5781988001605</v>
       </c>
       <c r="E3" t="n">
         <v>60</v>
@@ -516,13 +516,13 @@
         <v>44789</v>
       </c>
       <c r="B4" t="n">
-        <v>61.97804153467095</v>
+        <v>61.97804150901146</v>
       </c>
       <c r="C4" t="n">
-        <v>30.38150286037165</v>
+        <v>30.73910402015193</v>
       </c>
       <c r="D4" t="n">
-        <v>93.2291493526722</v>
+        <v>91.32607001515233</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
@@ -536,13 +536,13 @@
         <v>44796</v>
       </c>
       <c r="B5" t="n">
-        <v>31.82226743417728</v>
+        <v>31.82226743337531</v>
       </c>
       <c r="C5" t="n">
-        <v>1.541565368001007</v>
+        <v>-0.2050269948188742</v>
       </c>
       <c r="D5" t="n">
-        <v>64.60665359638151</v>
+        <v>65.76524513853134</v>
       </c>
       <c r="E5" t="n">
         <v>50</v>
@@ -556,13 +556,13 @@
         <v>44803</v>
       </c>
       <c r="B6" t="n">
-        <v>41.70120093712292</v>
+        <v>41.70120089556515</v>
       </c>
       <c r="C6" t="n">
-        <v>8.681876997919751</v>
+        <v>12.10664559321804</v>
       </c>
       <c r="D6" t="n">
-        <v>73.27969859538673</v>
+        <v>72.46327623810016</v>
       </c>
       <c r="E6" t="n">
         <v>50</v>
@@ -576,13 +576,13 @@
         <v>44806</v>
       </c>
       <c r="B7" t="n">
-        <v>47.8435677527044</v>
+        <v>47.84356775270425</v>
       </c>
       <c r="C7" t="n">
-        <v>15.2590651368426</v>
+        <v>18.81344448106482</v>
       </c>
       <c r="D7" t="n">
-        <v>79.46256054740478</v>
+        <v>80.47181949406639</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -596,13 +596,13 @@
         <v>44810</v>
       </c>
       <c r="B8" t="n">
-        <v>66.93894243555528</v>
+        <v>66.93894243555511</v>
       </c>
       <c r="C8" t="n">
-        <v>34.89905861619926</v>
+        <v>34.26910287409193</v>
       </c>
       <c r="D8" t="n">
-        <v>96.39252846025906</v>
+        <v>101.1967273626957</v>
       </c>
       <c r="E8" t="n">
         <v>80</v>
@@ -616,13 +616,13 @@
         <v>44817</v>
       </c>
       <c r="B9" t="n">
-        <v>87.66246110014518</v>
+        <v>87.6624611676955</v>
       </c>
       <c r="C9" t="n">
-        <v>56.24227784561834</v>
+        <v>53.76564584267153</v>
       </c>
       <c r="D9" t="n">
-        <v>119.3496564624989</v>
+        <v>118.5693171792546</v>
       </c>
       <c r="E9" t="n">
         <v>50</v>
@@ -636,13 +636,13 @@
         <v>44824</v>
       </c>
       <c r="B10" t="n">
-        <v>80.6693928165183</v>
+        <v>80.66939284068577</v>
       </c>
       <c r="C10" t="n">
-        <v>47.28743580293953</v>
+        <v>49.69943921046526</v>
       </c>
       <c r="D10" t="n">
-        <v>112.55257416648</v>
+        <v>113.3028682220132</v>
       </c>
       <c r="E10" t="n">
         <v>50</v>
@@ -656,13 +656,13 @@
         <v>44831</v>
       </c>
       <c r="B11" t="n">
-        <v>62.70849157495432</v>
+        <v>62.7084915721364</v>
       </c>
       <c r="C11" t="n">
-        <v>31.46984050625301</v>
+        <v>30.23598791047768</v>
       </c>
       <c r="D11" t="n">
-        <v>95.2864551888549</v>
+        <v>94.8703282777827</v>
       </c>
       <c r="E11" t="n">
         <v>60</v>
@@ -676,13 +676,13 @@
         <v>44845</v>
       </c>
       <c r="B12" t="n">
-        <v>50.91361274586049</v>
+        <v>50.91361284415854</v>
       </c>
       <c r="C12" t="n">
-        <v>19.99677404045385</v>
+        <v>20.14392187959842</v>
       </c>
       <c r="D12" t="n">
-        <v>83.45033690615763</v>
+        <v>82.88394148667149</v>
       </c>
       <c r="E12" t="n">
         <v>60</v>
@@ -696,13 +696,13 @@
         <v>44852</v>
       </c>
       <c r="B13" t="n">
-        <v>54.20943941888284</v>
+        <v>54.21200177432046</v>
       </c>
       <c r="C13" t="n">
-        <v>24.14376949650362</v>
+        <v>23.68774653755163</v>
       </c>
       <c r="D13" t="n">
-        <v>85.0932301652195</v>
+        <v>85.49521220543799</v>
       </c>
       <c r="E13" t="n">
         <v>50</v>
@@ -716,13 +716,13 @@
         <v>44859</v>
       </c>
       <c r="B14" t="n">
-        <v>58.16009262612137</v>
+        <v>58.15967412527688</v>
       </c>
       <c r="C14" t="n">
-        <v>25.22577378025614</v>
+        <v>27.59319175751082</v>
       </c>
       <c r="D14" t="n">
-        <v>88.72723683454612</v>
+        <v>88.57845395868067</v>
       </c>
       <c r="E14" t="n">
         <v>90</v>
@@ -736,13 +736,13 @@
         <v>44865</v>
       </c>
       <c r="B15" t="n">
-        <v>34.62408876898775</v>
+        <v>34.62408877806281</v>
       </c>
       <c r="C15" t="n">
-        <v>4.210689772173169</v>
+        <v>3.304007928924714</v>
       </c>
       <c r="D15" t="n">
-        <v>67.96989526164026</v>
+        <v>66.78307702036915</v>
       </c>
       <c r="E15" t="n">
         <v>60</v>
@@ -756,13 +756,13 @@
         <v>44869</v>
       </c>
       <c r="B16" t="n">
-        <v>74.33151728444847</v>
+        <v>74.33149814132804</v>
       </c>
       <c r="C16" t="n">
-        <v>43.16153637753931</v>
+        <v>43.87580494921509</v>
       </c>
       <c r="D16" t="n">
-        <v>104.3804542134854</v>
+        <v>104.1654024975158</v>
       </c>
       <c r="E16" t="n">
         <v>30</v>
@@ -776,13 +776,13 @@
         <v>44873</v>
       </c>
       <c r="B17" t="n">
-        <v>79.16537848841622</v>
+        <v>79.1653978253081</v>
       </c>
       <c r="C17" t="n">
-        <v>49.73403456565298</v>
+        <v>49.58536209420429</v>
       </c>
       <c r="D17" t="n">
-        <v>109.0620250451731</v>
+        <v>110.0473224179328</v>
       </c>
       <c r="E17" t="n">
         <v>60</v>
@@ -796,13 +796,13 @@
         <v>44880</v>
       </c>
       <c r="B18" t="n">
-        <v>67.7267112049938</v>
+        <v>67.66785620847449</v>
       </c>
       <c r="C18" t="n">
-        <v>37.64159148881848</v>
+        <v>37.43892146952745</v>
       </c>
       <c r="D18" t="n">
-        <v>98.79984501205809</v>
+        <v>99.73077646895997</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
@@ -816,13 +816,13 @@
         <v>44887</v>
       </c>
       <c r="B19" t="n">
-        <v>53.35860405166358</v>
+        <v>53.07996680688108</v>
       </c>
       <c r="C19" t="n">
-        <v>20.77984363984683</v>
+        <v>21.41265566499473</v>
       </c>
       <c r="D19" t="n">
-        <v>88.03498844568264</v>
+        <v>85.0015488290624</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
@@ -836,13 +836,13 @@
         <v>44894</v>
       </c>
       <c r="B20" t="n">
-        <v>45.26973089415424</v>
+        <v>45.53882803820033</v>
       </c>
       <c r="C20" t="n">
-        <v>12.60559078767909</v>
+        <v>16.19055831513876</v>
       </c>
       <c r="D20" t="n">
-        <v>78.14851612929151</v>
+        <v>77.45976189546285</v>
       </c>
       <c r="E20" t="n">
         <v>80</v>
@@ -856,13 +856,13 @@
         <v>44897</v>
       </c>
       <c r="B21" t="n">
-        <v>43.51490401202999</v>
+        <v>43.67887817076156</v>
       </c>
       <c r="C21" t="n">
-        <v>12.5713395079854</v>
+        <v>11.85885848481036</v>
       </c>
       <c r="D21" t="n">
-        <v>75.68164557186745</v>
+        <v>76.01405306967047</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
@@ -876,13 +876,13 @@
         <v>44904</v>
       </c>
       <c r="B22" t="n">
-        <v>32.97605830994557</v>
+        <v>32.33465131076544</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5896353914591368</v>
+        <v>1.66679972018035</v>
       </c>
       <c r="D22" t="n">
-        <v>67.12274378648262</v>
+        <v>66.74193833559393</v>
       </c>
       <c r="E22" t="n">
         <v>60</v>
@@ -896,13 +896,13 @@
         <v>44908</v>
       </c>
       <c r="B23" t="n">
-        <v>38.31034135786087</v>
+        <v>38.32449221952469</v>
       </c>
       <c r="C23" t="n">
-        <v>5.681823779374619</v>
+        <v>7.22939851548375</v>
       </c>
       <c r="D23" t="n">
-        <v>69.06588153154554</v>
+        <v>70.30930483009966</v>
       </c>
       <c r="E23" t="n">
         <v>70</v>
@@ -916,13 +916,13 @@
         <v>44915</v>
       </c>
       <c r="B24" t="n">
-        <v>43.16458947618646</v>
+        <v>40.50722556419018</v>
       </c>
       <c r="C24" t="n">
-        <v>12.85301327143036</v>
+        <v>8.149211113874038</v>
       </c>
       <c r="D24" t="n">
-        <v>73.48290963811756</v>
+        <v>75.61378397555514</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
@@ -936,13 +936,13 @@
         <v>44922</v>
       </c>
       <c r="B25" t="n">
-        <v>38.13159998096323</v>
+        <v>37.06199860395706</v>
       </c>
       <c r="C25" t="n">
-        <v>8.020579230777821</v>
+        <v>8.647441941109001</v>
       </c>
       <c r="D25" t="n">
-        <v>69.42921730645838</v>
+        <v>69.5449332343381</v>
       </c>
       <c r="E25" t="n">
         <v>40</v>
@@ -956,13 +956,13 @@
         <v>44929</v>
       </c>
       <c r="B26" t="n">
-        <v>42.1817974610319</v>
+        <v>42.25254654147789</v>
       </c>
       <c r="C26" t="n">
-        <v>11.33555301580218</v>
+        <v>11.15525559711127</v>
       </c>
       <c r="D26" t="n">
-        <v>72.69783466295016</v>
+        <v>73.27725712770602</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
@@ -976,13 +976,13 @@
         <v>44936</v>
       </c>
       <c r="B27" t="n">
-        <v>46.7074907409753</v>
+        <v>47.36656968844764</v>
       </c>
       <c r="C27" t="n">
-        <v>14.83747339836396</v>
+        <v>16.24432736122299</v>
       </c>
       <c r="D27" t="n">
-        <v>78.53628110841132</v>
+        <v>83.46788368038989</v>
       </c>
       <c r="E27" t="n">
         <v>30</v>
@@ -996,13 +996,13 @@
         <v>44943</v>
       </c>
       <c r="B28" t="n">
-        <v>51.44240622592364</v>
+        <v>51.35471583122936</v>
       </c>
       <c r="C28" t="n">
-        <v>21.5852821091642</v>
+        <v>21.52394120876606</v>
       </c>
       <c r="D28" t="n">
-        <v>80.801463120028</v>
+        <v>82.89617452368323</v>
       </c>
       <c r="E28" t="n">
         <v>100</v>
@@ -1016,13 +1016,13 @@
         <v>44950</v>
       </c>
       <c r="B29" t="n">
-        <v>61.6606488858077</v>
+        <v>61.45683840591473</v>
       </c>
       <c r="C29" t="n">
-        <v>28.16086976039313</v>
+        <v>31.15437075676071</v>
       </c>
       <c r="D29" t="n">
-        <v>91.65877896546344</v>
+        <v>92.54414696875658</v>
       </c>
       <c r="E29" t="n">
         <v>70</v>
@@ -1036,13 +1036,13 @@
         <v>44957</v>
       </c>
       <c r="B30" t="n">
-        <v>47.11111962328267</v>
+        <v>48.77507666927996</v>
       </c>
       <c r="C30" t="n">
-        <v>14.19268869662303</v>
+        <v>20.03835262809667</v>
       </c>
       <c r="D30" t="n">
-        <v>79.64766398050632</v>
+        <v>80.29683776621039</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -1056,13 +1056,13 @@
         <v>44964</v>
       </c>
       <c r="B31" t="n">
-        <v>32.40071787150522</v>
+        <v>32.31026982784521</v>
       </c>
       <c r="C31" t="n">
-        <v>4.872944112457832</v>
+        <v>-0.2789545370075868</v>
       </c>
       <c r="D31" t="n">
-        <v>66.254111284792</v>
+        <v>63.60951305101177</v>
       </c>
       <c r="E31" t="n">
         <v>50</v>
@@ -1076,13 +1076,13 @@
         <v>44971</v>
       </c>
       <c r="B32" t="n">
-        <v>50.74179368784749</v>
+        <v>50.41150040348987</v>
       </c>
       <c r="C32" t="n">
-        <v>19.54057086316273</v>
+        <v>17.71444561045202</v>
       </c>
       <c r="D32" t="n">
-        <v>82.04454662080543</v>
+        <v>82.94352866576122</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
@@ -1096,13 +1096,13 @@
         <v>44992</v>
       </c>
       <c r="B33" t="n">
-        <v>90.33862561812538</v>
+        <v>90.45815080015504</v>
       </c>
       <c r="C33" t="n">
-        <v>59.4464702997157</v>
+        <v>59.05345427318523</v>
       </c>
       <c r="D33" t="n">
-        <v>121.4220574485695</v>
+        <v>123.1404466967024</v>
       </c>
       <c r="E33" t="n">
         <v>140</v>
@@ -1116,13 +1116,13 @@
         <v>44999</v>
       </c>
       <c r="B34" t="n">
-        <v>84.03895370316886</v>
+        <v>81.59215362583801</v>
       </c>
       <c r="C34" t="n">
-        <v>51.3663849233182</v>
+        <v>51.84034548124197</v>
       </c>
       <c r="D34" t="n">
-        <v>115.0814122252822</v>
+        <v>114.056800184341</v>
       </c>
       <c r="E34" t="n">
         <v>50</v>
@@ -1136,13 +1136,13 @@
         <v>45006</v>
       </c>
       <c r="B35" t="n">
-        <v>58.35564203604267</v>
+        <v>59.92336712688085</v>
       </c>
       <c r="C35" t="n">
-        <v>24.66203931423851</v>
+        <v>28.57226874683831</v>
       </c>
       <c r="D35" t="n">
-        <v>89.25874504897763</v>
+        <v>92.83131220546215</v>
       </c>
       <c r="E35" t="n">
         <v>110</v>
@@ -1156,13 +1156,13 @@
         <v>45013</v>
       </c>
       <c r="B36" t="n">
-        <v>72.61078824107992</v>
+        <v>71.32257650024151</v>
       </c>
       <c r="C36" t="n">
-        <v>42.40349559290902</v>
+        <v>37.87721534442586</v>
       </c>
       <c r="D36" t="n">
-        <v>104.8165295085095</v>
+        <v>103.9703190977966</v>
       </c>
       <c r="E36" t="n">
         <v>60</v>
@@ -1176,13 +1176,13 @@
         <v>45020</v>
       </c>
       <c r="B37" t="n">
-        <v>78.06337579848517</v>
+        <v>79.7046549661888</v>
       </c>
       <c r="C37" t="n">
-        <v>47.59820436548871</v>
+        <v>46.61201093461497</v>
       </c>
       <c r="D37" t="n">
-        <v>110.0174588504546</v>
+        <v>111.9758773998458</v>
       </c>
       <c r="E37" t="n">
         <v>40</v>
@@ -1196,13 +1196,13 @@
         <v>45027</v>
       </c>
       <c r="B38" t="n">
-        <v>70.78199486734822</v>
+        <v>71.04855553738101</v>
       </c>
       <c r="C38" t="n">
-        <v>38.3471104141799</v>
+        <v>35.93234798744949</v>
       </c>
       <c r="D38" t="n">
-        <v>100.2585701501493</v>
+        <v>104.2376915780781</v>
       </c>
       <c r="E38" t="n">
         <v>30</v>
@@ -1216,13 +1216,13 @@
         <v>45034</v>
       </c>
       <c r="B39" t="n">
-        <v>51.43944680892509</v>
+        <v>50.90671130038312</v>
       </c>
       <c r="C39" t="n">
-        <v>18.94761775523366</v>
+        <v>20.16603606500527</v>
       </c>
       <c r="D39" t="n">
-        <v>81.08443394581897</v>
+        <v>83.95968694208314</v>
       </c>
       <c r="E39" t="n">
         <v>50</v>
@@ -1236,13 +1236,13 @@
         <v>45040</v>
       </c>
       <c r="B40" t="n">
-        <v>17.58206733093093</v>
+        <v>18.27376990972648</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.72810716349859</v>
+        <v>-14.96807225768812</v>
       </c>
       <c r="D40" t="n">
-        <v>51.52290763799693</v>
+        <v>50.73082172798382</v>
       </c>
       <c r="E40" t="n">
         <v>90</v>
@@ -1256,13 +1256,13 @@
         <v>45048</v>
       </c>
       <c r="B41" t="n">
-        <v>68.74368682681751</v>
+        <v>69.59723714030642</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49559634282039</v>
+        <v>33.42812636180837</v>
       </c>
       <c r="D41" t="n">
-        <v>101.7634469341032</v>
+        <v>100.5112306735513</v>
       </c>
       <c r="E41" t="n">
         <v>60</v>
@@ -1276,13 +1276,13 @@
         <v>45055</v>
       </c>
       <c r="B42" t="n">
-        <v>77.46701743477584</v>
+        <v>75.95649121574625</v>
       </c>
       <c r="C42" t="n">
-        <v>44.22247822269237</v>
+        <v>45.74779310033926</v>
       </c>
       <c r="D42" t="n">
-        <v>108.3926446068356</v>
+        <v>108.9845758499949</v>
       </c>
       <c r="E42" t="n">
         <v>60</v>
@@ -1296,13 +1296,13 @@
         <v>45062</v>
       </c>
       <c r="B43" t="n">
-        <v>72.64535329050943</v>
+        <v>74.41575909464694</v>
       </c>
       <c r="C43" t="n">
-        <v>42.88573952234447</v>
+        <v>41.63669712837148</v>
       </c>
       <c r="D43" t="n">
-        <v>108.6232408790398</v>
+        <v>107.3933207227586</v>
       </c>
       <c r="E43" t="n">
         <v>50</v>
@@ -1377,22 +1377,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2941.313506502226</v>
+        <v>2949.876497888785</v>
       </c>
       <c r="C2" t="n">
-        <v>54.23387784864942</v>
+        <v>54.312765515013</v>
       </c>
       <c r="D2" t="n">
-        <v>46.56867374600779</v>
+        <v>46.72974614882553</v>
       </c>
       <c r="E2" t="n">
-        <v>1.878290839324901</v>
+        <v>1.8820684766185</v>
       </c>
       <c r="F2" t="n">
-        <v>1.477717242814949</v>
+        <v>1.477716604710935</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9183625208727267</v>
+        <v>0.9225973872935327</v>
       </c>
       <c r="H2" t="n">
         <v>0.4</v>
@@ -1403,22 +1403,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2942.730213967621</v>
+        <v>2922.085487271016</v>
       </c>
       <c r="C3" t="n">
-        <v>54.24693736947388</v>
+        <v>54.05631773688452</v>
       </c>
       <c r="D3" t="n">
-        <v>47.73279784802422</v>
+        <v>47.64040840246544</v>
       </c>
       <c r="E3" t="n">
-        <v>1.246039307205749</v>
+        <v>1.246006729762526</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6275213622452818</v>
+        <v>0.6290236284673631</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9298399189406783</v>
+        <v>0.9266129544909066</v>
       </c>
       <c r="H3" t="n">
         <v>0.45</v>
@@ -1429,25 +1429,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>868.9244744974385</v>
+        <v>866.3974773192067</v>
       </c>
       <c r="C4" t="n">
-        <v>29.47752490453428</v>
+        <v>29.43463057894912</v>
       </c>
       <c r="D4" t="n">
-        <v>24.08038856533202</v>
+        <v>24.00342314425572</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5596562397697626</v>
+        <v>0.5623655827672049</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3635546513164543</v>
+        <v>0.353870351427464</v>
       </c>
       <c r="G4" t="n">
-        <v>0.415070094291627</v>
+        <v>0.4135583159700826</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.628571428571429</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBASPA4491043/OBASPA4491043_Sell in_metricas.xlsx
+++ b/modelos/OBASPA4491043/OBASPA4491043_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,841 +473,801 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44778</v>
+        <v>44789</v>
       </c>
       <c r="B2" t="n">
-        <v>140.1294379900993</v>
+        <v>64.75811981872194</v>
       </c>
       <c r="C2" t="n">
-        <v>107.3099443367093</v>
+        <v>30.31532760112021</v>
       </c>
       <c r="D2" t="n">
-        <v>170.7391010253378</v>
+        <v>98.45733050320484</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44775</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44782</v>
+        <v>44796</v>
       </c>
       <c r="B3" t="n">
-        <v>135.0835006844578</v>
+        <v>38.19288794861242</v>
       </c>
       <c r="C3" t="n">
-        <v>103.9423607936922</v>
+        <v>2.95588572009025</v>
       </c>
       <c r="D3" t="n">
-        <v>168.5781988001605</v>
+        <v>71.0089278404398</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44775</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44789</v>
+        <v>44803</v>
       </c>
       <c r="B4" t="n">
-        <v>61.97804150901146</v>
+        <v>45.31705844404335</v>
       </c>
       <c r="C4" t="n">
-        <v>30.73910402015193</v>
+        <v>10.49226548525811</v>
       </c>
       <c r="D4" t="n">
-        <v>91.32607001515233</v>
+        <v>78.40937982019773</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44782</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44796</v>
+        <v>44806</v>
       </c>
       <c r="B5" t="n">
-        <v>31.82226743337531</v>
+        <v>47.57284745507211</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2050269948188742</v>
+        <v>13.441103372552</v>
       </c>
       <c r="D5" t="n">
-        <v>65.76524513853134</v>
+        <v>81.6957817870925</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44789</v>
+        <v>44803</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B6" t="n">
+        <v>67.25123023150678</v>
+      </c>
+      <c r="C6" t="n">
+        <v>32.08487031758157</v>
+      </c>
+      <c r="D6" t="n">
+        <v>99.60663193453678</v>
+      </c>
+      <c r="E6" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44803</v>
-      </c>
-      <c r="B6" t="n">
-        <v>41.70120089556515</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12.10664559321804</v>
-      </c>
-      <c r="D6" t="n">
-        <v>72.46327623810016</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44806</v>
+        <v>44817</v>
       </c>
       <c r="B7" t="n">
-        <v>47.84356775270425</v>
+        <v>87.92804703336591</v>
       </c>
       <c r="C7" t="n">
-        <v>18.81344448106482</v>
+        <v>57.30445078850851</v>
       </c>
       <c r="D7" t="n">
-        <v>80.47181949406639</v>
+        <v>121.6805109273657</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44803</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44810</v>
+        <v>44824</v>
       </c>
       <c r="B8" t="n">
-        <v>66.93894243555511</v>
+        <v>83.12785447007442</v>
       </c>
       <c r="C8" t="n">
-        <v>34.26910287409193</v>
+        <v>52.44728728485184</v>
       </c>
       <c r="D8" t="n">
-        <v>101.1967273626957</v>
+        <v>117.2605582251557</v>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44803</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44817</v>
+        <v>44831</v>
       </c>
       <c r="B9" t="n">
-        <v>87.6624611676955</v>
+        <v>66.4626619504911</v>
       </c>
       <c r="C9" t="n">
-        <v>53.76564584267153</v>
+        <v>32.25654288950776</v>
       </c>
       <c r="D9" t="n">
-        <v>118.5693171792546</v>
+        <v>96.16115544313061</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44810</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44824</v>
+        <v>44845</v>
       </c>
       <c r="B10" t="n">
-        <v>80.66939284068577</v>
+        <v>54.19504419351303</v>
       </c>
       <c r="C10" t="n">
-        <v>49.69943921046526</v>
+        <v>20.07550332394677</v>
       </c>
       <c r="D10" t="n">
-        <v>113.3028682220132</v>
+        <v>85.27089968572396</v>
       </c>
       <c r="E10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44831</v>
+        <v>44852</v>
       </c>
       <c r="B11" t="n">
-        <v>62.7084915721364</v>
+        <v>54.28750793361431</v>
       </c>
       <c r="C11" t="n">
-        <v>30.23598791047768</v>
+        <v>18.81169748502505</v>
       </c>
       <c r="D11" t="n">
-        <v>94.8703282777827</v>
+        <v>86.70718932402829</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44824</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
       <c r="B12" t="n">
-        <v>50.91361284415854</v>
+        <v>57.80836317984124</v>
       </c>
       <c r="C12" t="n">
-        <v>20.14392187959842</v>
+        <v>25.76297192576445</v>
       </c>
       <c r="D12" t="n">
-        <v>82.88394148667149</v>
+        <v>89.76989313655517</v>
       </c>
       <c r="E12" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44838</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44852</v>
+        <v>44865</v>
       </c>
       <c r="B13" t="n">
-        <v>54.21200177432046</v>
+        <v>41.62502644673495</v>
       </c>
       <c r="C13" t="n">
-        <v>23.68774653755163</v>
+        <v>8.493491864232446</v>
       </c>
       <c r="D13" t="n">
-        <v>85.49521220543799</v>
+        <v>72.9925326631605</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44859</v>
+        <v>44869</v>
       </c>
       <c r="B14" t="n">
-        <v>58.15967412527688</v>
+        <v>74.30623256930662</v>
       </c>
       <c r="C14" t="n">
-        <v>27.59319175751082</v>
+        <v>44.89375566394779</v>
       </c>
       <c r="D14" t="n">
-        <v>88.57845395868067</v>
+        <v>105.9073598865101</v>
       </c>
       <c r="E14" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44852</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44865</v>
+        <v>44873</v>
       </c>
       <c r="B15" t="n">
-        <v>34.62408877806281</v>
+        <v>82.38659519897109</v>
       </c>
       <c r="C15" t="n">
-        <v>3.304007928924714</v>
+        <v>52.86281182546902</v>
       </c>
       <c r="D15" t="n">
-        <v>66.78307702036915</v>
+        <v>115.4571399188261</v>
       </c>
       <c r="E15" t="n">
         <v>60</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44869</v>
+        <v>44880</v>
       </c>
       <c r="B16" t="n">
-        <v>74.33149814132804</v>
+        <v>68.5628584696413</v>
       </c>
       <c r="C16" t="n">
-        <v>43.87580494921509</v>
+        <v>38.55161862965306</v>
       </c>
       <c r="D16" t="n">
-        <v>104.1654024975158</v>
+        <v>100.3096295926378</v>
       </c>
       <c r="E16" t="n">
         <v>30</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44866</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44873</v>
+        <v>44887</v>
       </c>
       <c r="B17" t="n">
-        <v>79.1653978253081</v>
+        <v>54.60909537170459</v>
       </c>
       <c r="C17" t="n">
-        <v>49.58536209420429</v>
+        <v>23.05783154939418</v>
       </c>
       <c r="D17" t="n">
-        <v>110.0473224179328</v>
+        <v>87.69005196333022</v>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44866</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
       <c r="B18" t="n">
-        <v>67.66785620847449</v>
+        <v>46.54336361937612</v>
       </c>
       <c r="C18" t="n">
-        <v>37.43892146952745</v>
+        <v>11.66982662086012</v>
       </c>
       <c r="D18" t="n">
-        <v>99.73077646895997</v>
+        <v>77.11685248885335</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44873</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44887</v>
+        <v>44897</v>
       </c>
       <c r="B19" t="n">
-        <v>53.07996680688108</v>
+        <v>43.16577089884243</v>
       </c>
       <c r="C19" t="n">
-        <v>21.41265566499473</v>
+        <v>10.49405346956395</v>
       </c>
       <c r="D19" t="n">
-        <v>85.0015488290624</v>
+        <v>75.83436878592376</v>
       </c>
       <c r="E19" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44894</v>
+        <v>44904</v>
       </c>
       <c r="B20" t="n">
-        <v>45.53882803820033</v>
+        <v>33.5551518218235</v>
       </c>
       <c r="C20" t="n">
-        <v>16.19055831513876</v>
+        <v>0.1504948957509502</v>
       </c>
       <c r="D20" t="n">
-        <v>77.45976189546285</v>
+        <v>62.07840240622009</v>
       </c>
       <c r="E20" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44887</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44897</v>
+        <v>44908</v>
       </c>
       <c r="B21" t="n">
-        <v>43.67887817076156</v>
+        <v>41.40840540080625</v>
       </c>
       <c r="C21" t="n">
-        <v>11.85885848481036</v>
+        <v>7.290564132907729</v>
       </c>
       <c r="D21" t="n">
-        <v>76.01405306967047</v>
+        <v>72.45890362774647</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44894</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44904</v>
+        <v>44915</v>
       </c>
       <c r="B22" t="n">
-        <v>32.33465131076544</v>
+        <v>41.52335490507478</v>
       </c>
       <c r="C22" t="n">
-        <v>1.66679972018035</v>
+        <v>11.13033222304794</v>
       </c>
       <c r="D22" t="n">
-        <v>66.74193833559393</v>
+        <v>75.07624686216488</v>
       </c>
       <c r="E22" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44901</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
       <c r="B23" t="n">
-        <v>38.32449221952469</v>
+        <v>38.89286440148076</v>
       </c>
       <c r="C23" t="n">
-        <v>7.22939851548375</v>
+        <v>3.493907533577655</v>
       </c>
       <c r="D23" t="n">
-        <v>70.30930483009966</v>
+        <v>68.61479285065016</v>
       </c>
       <c r="E23" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44915</v>
+        <v>44929</v>
       </c>
       <c r="B24" t="n">
-        <v>40.50722556419018</v>
+        <v>42.72649068108441</v>
       </c>
       <c r="C24" t="n">
-        <v>8.149211113874038</v>
+        <v>12.2664565780103</v>
       </c>
       <c r="D24" t="n">
-        <v>75.61378397555514</v>
+        <v>74.35348542307929</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
       <c r="B25" t="n">
-        <v>37.06199860395706</v>
+        <v>48.27246425919331</v>
       </c>
       <c r="C25" t="n">
-        <v>8.647441941109001</v>
+        <v>17.3732255686009</v>
       </c>
       <c r="D25" t="n">
-        <v>69.5449332343381</v>
+        <v>80.24353597353931</v>
       </c>
       <c r="E25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44915</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
       <c r="B26" t="n">
-        <v>42.25254654147789</v>
+        <v>51.73341914863494</v>
       </c>
       <c r="C26" t="n">
-        <v>11.15525559711127</v>
+        <v>20.49122772128141</v>
       </c>
       <c r="D26" t="n">
-        <v>73.27725712770602</v>
+        <v>82.83110184643373</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44922</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
       <c r="B27" t="n">
-        <v>47.36656968844764</v>
+        <v>62.01888975145314</v>
       </c>
       <c r="C27" t="n">
-        <v>16.24432736122299</v>
+        <v>31.75293033493808</v>
       </c>
       <c r="D27" t="n">
-        <v>83.46788368038989</v>
+        <v>94.87168940414976</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44929</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
       <c r="B28" t="n">
-        <v>51.35471583122936</v>
+        <v>49.95235846108426</v>
       </c>
       <c r="C28" t="n">
-        <v>21.52394120876606</v>
+        <v>20.15602275508337</v>
       </c>
       <c r="D28" t="n">
-        <v>82.89617452368323</v>
+        <v>84.05973766834215</v>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44936</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44950</v>
+        <v>44964</v>
       </c>
       <c r="B29" t="n">
-        <v>61.45683840591473</v>
+        <v>33.68759992947818</v>
       </c>
       <c r="C29" t="n">
-        <v>31.15437075676071</v>
+        <v>1.794124342225099</v>
       </c>
       <c r="D29" t="n">
-        <v>92.54414696875658</v>
+        <v>65.36144513953403</v>
       </c>
       <c r="E29" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44943</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44957</v>
+        <v>44971</v>
       </c>
       <c r="B30" t="n">
-        <v>48.77507666927996</v>
+        <v>47.18554962553002</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03835262809667</v>
+        <v>14.62808229784709</v>
       </c>
       <c r="D30" t="n">
-        <v>80.29683776621039</v>
+        <v>79.20683576187598</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44950</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44964</v>
+        <v>44992</v>
       </c>
       <c r="B31" t="n">
-        <v>32.31026982784521</v>
+        <v>77.25397004833691</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2789545370075868</v>
+        <v>45.71305362853759</v>
       </c>
       <c r="D31" t="n">
-        <v>63.60951305101177</v>
+        <v>110.2193384955499</v>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44957</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44971</v>
+        <v>44999</v>
       </c>
       <c r="B32" t="n">
-        <v>50.41150040348987</v>
+        <v>83.01733700276945</v>
       </c>
       <c r="C32" t="n">
-        <v>17.71444561045202</v>
+        <v>51.19553547280835</v>
       </c>
       <c r="D32" t="n">
-        <v>82.94352866576122</v>
+        <v>115.489987250351</v>
       </c>
       <c r="E32" t="n">
         <v>50</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44964</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
       <c r="B33" t="n">
-        <v>90.45815080015504</v>
+        <v>64.93534357392386</v>
       </c>
       <c r="C33" t="n">
-        <v>59.05345427318523</v>
+        <v>33.09676141312564</v>
       </c>
       <c r="D33" t="n">
-        <v>123.1404466967024</v>
+        <v>96.04208462475067</v>
       </c>
       <c r="E33" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44985</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
       <c r="B34" t="n">
-        <v>81.59215362583801</v>
+        <v>75.43466416564462</v>
       </c>
       <c r="C34" t="n">
-        <v>51.84034548124197</v>
+        <v>42.36719553369485</v>
       </c>
       <c r="D34" t="n">
-        <v>114.056800184341</v>
+        <v>106.0932614104756</v>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
       <c r="B35" t="n">
-        <v>59.92336712688085</v>
+        <v>77.08822469320145</v>
       </c>
       <c r="C35" t="n">
-        <v>28.57226874683831</v>
+        <v>42.79224684521817</v>
       </c>
       <c r="D35" t="n">
-        <v>92.83131220546215</v>
+        <v>108.9039684535476</v>
       </c>
       <c r="E35" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="B36" t="n">
-        <v>71.32257650024151</v>
+        <v>67.24381954906896</v>
       </c>
       <c r="C36" t="n">
-        <v>37.87721534442586</v>
+        <v>34.73468189241852</v>
       </c>
       <c r="D36" t="n">
-        <v>103.9703190977966</v>
+        <v>99.45847516439632</v>
       </c>
       <c r="E36" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="B37" t="n">
-        <v>79.7046549661888</v>
+        <v>52.52521253625349</v>
       </c>
       <c r="C37" t="n">
-        <v>46.61201093461497</v>
+        <v>19.16991571369682</v>
       </c>
       <c r="D37" t="n">
-        <v>111.9758773998458</v>
+        <v>85.94033731326606</v>
       </c>
       <c r="E37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B38" t="n">
-        <v>71.04855553738101</v>
+        <v>23.36016356193339</v>
       </c>
       <c r="C38" t="n">
-        <v>35.93234798744949</v>
+        <v>-10.75182025417849</v>
       </c>
       <c r="D38" t="n">
-        <v>104.2376915780781</v>
+        <v>55.53054551806223</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="B39" t="n">
-        <v>50.90671130038312</v>
+        <v>73.12651009356108</v>
       </c>
       <c r="C39" t="n">
-        <v>20.16603606500527</v>
+        <v>40.13960902722788</v>
       </c>
       <c r="D39" t="n">
-        <v>83.95968694208314</v>
+        <v>106.5347410162041</v>
       </c>
       <c r="E39" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45027</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45040</v>
+        <v>45055</v>
       </c>
       <c r="B40" t="n">
-        <v>18.27376990972648</v>
+        <v>73.46714974564149</v>
       </c>
       <c r="C40" t="n">
-        <v>-14.96807225768812</v>
+        <v>41.18838984448622</v>
       </c>
       <c r="D40" t="n">
-        <v>50.73082172798382</v>
+        <v>106.9891838823253</v>
       </c>
       <c r="E40" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="B41" t="n">
-        <v>69.59723714030642</v>
+        <v>65.91954378521478</v>
       </c>
       <c r="C41" t="n">
-        <v>33.42812636180837</v>
+        <v>33.18374665748686</v>
       </c>
       <c r="D41" t="n">
-        <v>100.5112306735513</v>
+        <v>97.96854184979382</v>
       </c>
       <c r="E41" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45055</v>
-      </c>
-      <c r="B42" t="n">
-        <v>75.95649121574625</v>
-      </c>
-      <c r="C42" t="n">
-        <v>45.74779310033926</v>
-      </c>
-      <c r="D42" t="n">
-        <v>108.9845758499949</v>
-      </c>
-      <c r="E42" t="n">
-        <v>60</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B43" t="n">
-        <v>74.41575909464694</v>
-      </c>
-      <c r="C43" t="n">
-        <v>41.63669712837148</v>
-      </c>
-      <c r="D43" t="n">
-        <v>107.3933207227586</v>
-      </c>
-      <c r="E43" t="n">
-        <v>50</v>
-      </c>
-      <c r="F43" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1377,25 +1337,25 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2949.876497888785</v>
+        <v>1152.686011718016</v>
       </c>
       <c r="C2" t="n">
-        <v>54.312765515013</v>
+        <v>33.9512298999317</v>
       </c>
       <c r="D2" t="n">
-        <v>46.72974614882553</v>
+        <v>32.87242477534942</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8820684766185</v>
+        <v>1.708298794765624</v>
       </c>
       <c r="F2" t="n">
-        <v>1.477716604710935</v>
+        <v>1.317581481959504</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9225973872935327</v>
+        <v>0.8633981183133472</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -1403,25 +1363,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2922.085487271016</v>
+        <v>1770.969869252873</v>
       </c>
       <c r="C3" t="n">
-        <v>54.05631773688452</v>
+        <v>42.08289283370231</v>
       </c>
       <c r="D3" t="n">
-        <v>47.64040840246544</v>
+        <v>37.68991488550763</v>
       </c>
       <c r="E3" t="n">
-        <v>1.246006729762526</v>
+        <v>1.11582244396049</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6290236284673631</v>
+        <v>0.9493655860158754</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9266129544909066</v>
+        <v>0.8160345038471593</v>
       </c>
       <c r="H3" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -1429,25 +1389,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>866.3974773192067</v>
+        <v>742.8522013439724</v>
       </c>
       <c r="C4" t="n">
-        <v>29.43463057894912</v>
+        <v>27.2553151026359</v>
       </c>
       <c r="D4" t="n">
-        <v>24.00342314425572</v>
+        <v>22.52929060670115</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5623655827672049</v>
+        <v>0.5427970440630876</v>
       </c>
       <c r="F4" t="n">
-        <v>0.353870351427464</v>
+        <v>0.3691686521377331</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4135583159700826</v>
+        <v>0.3973260582954126</v>
       </c>
       <c r="H4" t="n">
-        <v>0.628571428571429</v>
+        <v>0.617647058823529</v>
       </c>
     </row>
   </sheetData>
